--- a/CT_all.xlsx
+++ b/CT_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phowlett/Library/CloudStorage/Dropbox/PhD/BSc 2024/Silicosis - Systematic Review/Meta-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D347445-A73B-FC46-8F66-7228AF0C2640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA247B49-F318-E84E-984B-75DEB806802B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35900" yWindow="2940" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,16 +567,6 @@
         <v>0.68571428571428572</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F5">
-        <f>SUM(F2:F4)</f>
-        <v>151</v>
-      </c>
-      <c r="G5">
-        <f>SUM(G2:G4)</f>
-        <v>112</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E3">
     <sortCondition ref="A2:A3"/>
